--- a/biology/Zoologie/Bec-en-croc_de_Temminck/Bec-en-croc_de_Temminck.xlsx
+++ b/biology/Zoologie/Bec-en-croc_de_Temminck/Bec-en-croc_de_Temminck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chondrohierax uncinatus
 Le Bec-en-croc de Temminck (Chondrohierax uncinatus), anciennement connu en tant que Milan bec-en-croc, est une espèce d'oiseaux appartenant à la famille des Accipitridae. L'Union internationale pour la conservation de la nature considère ce rapace comme de « préoccupation mineure ».
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mensurations
-De taille moyenne, il mesure entre 39 et 51 cm pour une envergure de 78 à 98 cm. Son poids est compris entre 235 et 360 g[1].
-Aspect général
-L'iris est blanchâtre et les pattes sont jaunes. Le plumage des mâles est gris ou noirâtre, celui des femelles est marron rougeâtre.
+          <t>Mensurations</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De taille moyenne, il mesure entre 39 et 51 cm pour une envergure de 78 à 98 cm. Son poids est compris entre 235 et 360 g.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il fréquente notamment les zones sèches de forêts et de maquis.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'iris est blanchâtre et les pattes sont jaunes. Le plumage des mâles est gris ou noirâtre, celui des femelles est marron rougeâtre.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Alimentation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit entre autres de gastéropodes arboricoles (e.g. Homolanyx, Polymita; Bulimulus wiebesi à Grenade).
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente notamment les zones sèches de forêts et de maquis.
 </t>
         </is>
       </c>
@@ -605,10 +628,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit entre autres de gastéropodes arboricoles (e.g. Homolanyx, Polymita; Bulimulus wiebesi à Grenade).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bec-en-croc_de_Temminck</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bec-en-croc_de_Temminck</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe deux sous-espèces :
 Chondrohierax uncinatus uncinatus  (Temminck, 1822)
